--- a/app/data/RegentsCalendar.xlsx
+++ b/app/data/RegentsCalendar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekstampone/Library/Mobile Documents/com~apple~CloudDocs/Developer/data-specialist-flask/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880BC8BC-AD7C-A74A-8625-47706A0396E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C398C0A0-E582-CE4C-8A89-9D2BC4038FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="500" windowWidth="33560" windowHeight="28300" activeTab="2" xr2:uid="{98DCE2EE-096A-EF4C-9576-6BE138F05710}"/>
+    <workbookView xWindow="1700" yWindow="500" windowWidth="33560" windowHeight="28300" activeTab="3" xr2:uid="{98DCE2EE-096A-EF4C-9576-6BE138F05710}"/>
   </bookViews>
   <sheets>
     <sheet name="SectionProperties" sheetId="2" r:id="rId1"/>
@@ -13948,7 +13948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCA803E-0660-F641-BDDB-024EE43C3378}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
@@ -14150,8 +14150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF381A89-EC94-BD4E-AF94-947710DA3428}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14175,36 +14175,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45679</v>
+        <v>45678</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45679</v>
+        <v>45678</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -14212,101 +14212,101 @@
         <v>45678</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45681</v>
+        <v>45679</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45680</v>
+        <v>45679</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>45679</v>
+        <v>45680</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -14314,7 +14314,7 @@
         <v>45680</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>145</v>
@@ -14328,22 +14328,26 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>45679</v>
+        <v>45681</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
+    <sortCondition ref="A2:A11"/>
+    <sortCondition ref="B2:B11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/app/data/RegentsCalendar.xlsx
+++ b/app/data/RegentsCalendar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekstampone/Library/Mobile Documents/com~apple~CloudDocs/Developer/data-specialist-flask/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C398C0A0-E582-CE4C-8A89-9D2BC4038FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FE5344-7614-8F4D-96DB-BF8815366FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="500" windowWidth="33560" windowHeight="28300" activeTab="3" xr2:uid="{98DCE2EE-096A-EF4C-9576-6BE138F05710}"/>
   </bookViews>
@@ -16,13 +16,15 @@
     <sheet name="SectionProperties" sheetId="2" r:id="rId1"/>
     <sheet name="SummerSectionProperties" sheetId="4" r:id="rId2"/>
     <sheet name="2025-1" sheetId="6" r:id="rId3"/>
-    <sheet name="2024-1" sheetId="5" r:id="rId4"/>
-    <sheet name="2023-7" sheetId="3" r:id="rId5"/>
-    <sheet name="2023-2" sheetId="1" r:id="rId6"/>
+    <sheet name="2024-2" sheetId="7" r:id="rId4"/>
+    <sheet name="2024-1" sheetId="5" r:id="rId5"/>
+    <sheet name="2023-7" sheetId="3" r:id="rId6"/>
+    <sheet name="2023-2" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2023-2'!$A$1:$E$327</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2023-7'!$A$1:$E$327</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2023-2'!$A$1:$E$327</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2023-7'!$A$1:$E$327</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2024-2'!$A$1:$E$327</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SummerSectionProperties!$A$1:$L$1004</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="168">
   <si>
     <t>Day</t>
   </si>
@@ -541,6 +543,15 @@
   </si>
   <si>
     <t>_</t>
+  </si>
+  <si>
+    <t>Bio</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>DistributedScoring</t>
   </si>
 </sst>
 </file>
@@ -633,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -645,6 +656,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13949,7 +13962,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14147,10 +14160,335 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F52638-A0BD-4648-8682-FCD1751FE67B}">
+  <dimension ref="A1:F265"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>45818</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>45818</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45828</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45828</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45832</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45832</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45833</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="2"/>
+      <c r="B234" s="2"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="2"/>
+      <c r="B265" s="2"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F265">
+    <sortCondition ref="A2:A265"/>
+    <sortCondition ref="B2:B265"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF381A89-EC94-BD4E-AF94-947710DA3428}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -14352,7 +14690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B7BB07-9E9C-344A-8EF0-72CA0865EFBF}">
   <dimension ref="A1:E265"/>
   <sheetViews>
@@ -14568,7 +14906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB66886-AAD9-A442-BF69-AADD50D3EDBE}">
   <dimension ref="A1:E265"/>
   <sheetViews>

--- a/app/data/RegentsCalendar.xlsx
+++ b/app/data/RegentsCalendar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekstampone/Library/Mobile Documents/com~apple~CloudDocs/Developer/data-specialist-flask/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FE5344-7614-8F4D-96DB-BF8815366FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE905587-B23B-9148-8634-BE932E353086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="500" windowWidth="33560" windowHeight="28300" activeTab="3" xr2:uid="{98DCE2EE-096A-EF4C-9576-6BE138F05710}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="171">
   <si>
     <t>Day</t>
   </si>
@@ -552,6 +552,15 @@
   </si>
   <si>
     <t>DistributedScoring</t>
+  </si>
+  <si>
+    <t>MXRJE</t>
+  </si>
+  <si>
+    <t>SXR3E</t>
+  </si>
+  <si>
+    <t>SXR2E</t>
   </si>
 </sst>
 </file>
@@ -14163,9 +14172,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F52638-A0BD-4648-8682-FCD1751FE67B}">
   <dimension ref="A1:F265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14206,7 +14215,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>165</v>
@@ -14226,7 +14235,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>166</v>
@@ -14246,7 +14255,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>

--- a/app/data/RegentsCalendar.xlsx
+++ b/app/data/RegentsCalendar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekstampone/Library/Mobile Documents/com~apple~CloudDocs/Developer/data-specialist-flask/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE905587-B23B-9148-8634-BE932E353086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5CFB0E-E444-3749-B645-2F32950FF690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="500" windowWidth="33560" windowHeight="28300" activeTab="3" xr2:uid="{98DCE2EE-096A-EF4C-9576-6BE138F05710}"/>
   </bookViews>
@@ -14174,7 +14174,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14263,7 +14263,7 @@
       <c r="E4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="b">
+      <c r="F4" s="12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14403,8 +14403,8 @@
       <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F11" t="b">
-        <v>0</v>
+      <c r="F11" s="12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -14423,8 +14423,8 @@
       <c r="E12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F12" t="b">
-        <v>0</v>
+      <c r="F12" s="12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">

--- a/app/data/RegentsCalendar.xlsx
+++ b/app/data/RegentsCalendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekstampone/Library/Mobile Documents/com~apple~CloudDocs/Developer/data-specialist-flask/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5CFB0E-E444-3749-B645-2F32950FF690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2FE95E-8EDB-0642-AEAC-94990B2CBAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="500" windowWidth="33560" windowHeight="28300" activeTab="3" xr2:uid="{98DCE2EE-096A-EF4C-9576-6BE138F05710}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="174">
   <si>
     <t>Day</t>
   </si>
@@ -561,6 +561,15 @@
   </si>
   <si>
     <t>SXR2E</t>
+  </si>
+  <si>
+    <t>FXTSE</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>FSS88</t>
   </si>
 </sst>
 </file>
@@ -14174,7 +14183,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14445,6 +14454,26 @@
       </c>
       <c r="F13" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">

--- a/app/data/RegentsCalendar.xlsx
+++ b/app/data/RegentsCalendar.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekstampone/Library/Mobile Documents/com~apple~CloudDocs/Developer/data-specialist-flask/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2FE95E-8EDB-0642-AEAC-94990B2CBAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CE744A-25FC-8D46-9BD6-97000686BACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="500" windowWidth="33560" windowHeight="28300" activeTab="3" xr2:uid="{98DCE2EE-096A-EF4C-9576-6BE138F05710}"/>
+    <workbookView xWindow="1540" yWindow="500" windowWidth="13640" windowHeight="17500" activeTab="2" xr2:uid="{98DCE2EE-096A-EF4C-9576-6BE138F05710}"/>
   </bookViews>
   <sheets>
     <sheet name="SectionProperties" sheetId="2" r:id="rId1"/>
     <sheet name="SummerSectionProperties" sheetId="4" r:id="rId2"/>
-    <sheet name="2025-1" sheetId="6" r:id="rId3"/>
-    <sheet name="2024-2" sheetId="7" r:id="rId4"/>
-    <sheet name="2024-1" sheetId="5" r:id="rId5"/>
-    <sheet name="2023-7" sheetId="3" r:id="rId6"/>
-    <sheet name="2023-2" sheetId="1" r:id="rId7"/>
+    <sheet name="2024-7" sheetId="8" r:id="rId3"/>
+    <sheet name="2025-1" sheetId="6" r:id="rId4"/>
+    <sheet name="2024-2" sheetId="7" r:id="rId5"/>
+    <sheet name="2024-1" sheetId="5" r:id="rId6"/>
+    <sheet name="2023-7" sheetId="3" r:id="rId7"/>
+    <sheet name="2023-2" sheetId="1" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2023-2'!$A$1:$E$327</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2023-7'!$A$1:$E$327</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2024-2'!$A$1:$E$327</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2023-2'!$A$1:$E$327</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2023-7'!$A$1:$E$327</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2024-2'!$A$1:$E$327</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2024-7'!$A$1:$E$326</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SummerSectionProperties!$A$1:$L$1004</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="174">
   <si>
     <t>Day</t>
   </si>
@@ -491,18 +493,6 @@
     <t>SXRPR</t>
   </si>
   <si>
-    <t>AM-Exam1</t>
-  </si>
-  <si>
-    <t>AM-Exam2</t>
-  </si>
-  <si>
-    <t>PM-Exam1</t>
-  </si>
-  <si>
-    <t>PM-Exam2</t>
-  </si>
-  <si>
     <t>AM1_ROOM</t>
   </si>
   <si>
@@ -570,6 +560,18 @@
   </si>
   <si>
     <t>FSS88</t>
+  </si>
+  <si>
+    <t>TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>SXR3G</t>
+  </si>
+  <si>
+    <t>SXR2G</t>
+  </si>
+  <si>
+    <t>MXRJG</t>
   </si>
 </sst>
 </file>
@@ -1010,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED29BD9C-93F7-3B47-BD2F-429330E86B98}">
-  <dimension ref="A1:F1004"/>
+  <dimension ref="A1:E1004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1022,541 +1024,257 @@
     <col min="3" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C2">
-        <v>202</v>
-      </c>
-      <c r="D2">
-        <v>202</v>
-      </c>
-      <c r="E2">
-        <v>202</v>
-      </c>
-      <c r="F2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C3">
-        <v>906</v>
-      </c>
-      <c r="D3">
-        <v>840</v>
-      </c>
-      <c r="E3">
-        <v>906</v>
-      </c>
-      <c r="F3">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C4">
-        <v>906</v>
-      </c>
-      <c r="D4">
-        <v>840</v>
-      </c>
-      <c r="E4">
-        <v>906</v>
-      </c>
-      <c r="F4">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C5">
-        <v>906</v>
-      </c>
-      <c r="D5">
-        <v>840</v>
-      </c>
-      <c r="E5">
-        <v>906</v>
-      </c>
-      <c r="F5">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C6">
-        <v>906</v>
-      </c>
-      <c r="D6">
-        <v>840</v>
-      </c>
-      <c r="E6">
-        <v>906</v>
-      </c>
-      <c r="F6">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C7">
-        <v>940</v>
-      </c>
-      <c r="D7">
-        <v>826</v>
-      </c>
-      <c r="E7">
-        <v>940</v>
-      </c>
-      <c r="F7">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C8">
-        <v>940</v>
-      </c>
-      <c r="D8">
-        <v>826</v>
-      </c>
-      <c r="E8">
-        <v>940</v>
-      </c>
-      <c r="F8">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C9">
-        <v>925</v>
-      </c>
-      <c r="D9">
-        <v>824</v>
-      </c>
-      <c r="E9">
-        <v>925</v>
-      </c>
-      <c r="F9">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C10">
-        <v>925</v>
-      </c>
-      <c r="D10">
-        <v>824</v>
-      </c>
-      <c r="E10">
-        <v>925</v>
-      </c>
-      <c r="F10">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C11">
-        <v>923</v>
-      </c>
-      <c r="D11">
-        <v>822</v>
-      </c>
-      <c r="E11">
-        <v>923</v>
-      </c>
-      <c r="F11">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C12">
-        <v>923</v>
-      </c>
-      <c r="D12">
-        <v>822</v>
-      </c>
-      <c r="E12">
-        <v>923</v>
-      </c>
-      <c r="F12">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C13">
-        <v>921</v>
-      </c>
-      <c r="D13">
-        <v>802</v>
-      </c>
-      <c r="E13">
-        <v>921</v>
-      </c>
-      <c r="F13">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C14">
-        <v>921</v>
-      </c>
-      <c r="D14">
-        <v>802</v>
-      </c>
-      <c r="E14">
-        <v>921</v>
-      </c>
-      <c r="F14">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C15">
-        <v>902</v>
-      </c>
-      <c r="D15">
-        <v>801</v>
-      </c>
-      <c r="E15">
-        <v>902</v>
-      </c>
-      <c r="F15">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C16">
-        <v>902</v>
-      </c>
-      <c r="D16">
-        <v>801</v>
-      </c>
-      <c r="E16">
-        <v>902</v>
-      </c>
-      <c r="F16">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C17">
-        <v>202</v>
-      </c>
-      <c r="D17">
-        <v>202</v>
-      </c>
-      <c r="E17">
-        <v>202</v>
-      </c>
-      <c r="F17">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C18">
-        <v>202</v>
-      </c>
-      <c r="D18">
-        <v>202</v>
-      </c>
-      <c r="E18">
-        <v>202</v>
-      </c>
-      <c r="F18">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C19">
-        <v>202</v>
-      </c>
-      <c r="D19">
-        <v>202</v>
-      </c>
-      <c r="E19">
-        <v>202</v>
-      </c>
-      <c r="F19">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C20">
-        <v>202</v>
-      </c>
-      <c r="D20">
-        <v>202</v>
-      </c>
-      <c r="E20">
-        <v>202</v>
-      </c>
-      <c r="F20">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C25">
-        <v>202</v>
-      </c>
-      <c r="E25">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C26">
-        <v>202</v>
-      </c>
-      <c r="E26">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C27">
-        <v>202</v>
-      </c>
-      <c r="E27">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C28">
-        <v>202</v>
-      </c>
-      <c r="E28">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C29">
-        <v>742</v>
-      </c>
-      <c r="E29" s="3">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C30">
-        <v>740</v>
-      </c>
-      <c r="E30" s="3">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C31">
-        <v>701</v>
-      </c>
-      <c r="E31" s="3">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C32">
-        <v>701</v>
-      </c>
-      <c r="E32" s="3">
-        <v>524</v>
-      </c>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -1565,12 +1283,7 @@
       <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C33">
-        <v>701</v>
-      </c>
-      <c r="E33" s="3">
-        <v>524</v>
-      </c>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -1579,12 +1292,7 @@
       <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C34">
-        <v>701</v>
-      </c>
-      <c r="E34" s="3">
-        <v>524</v>
-      </c>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -1593,12 +1301,7 @@
       <c r="B35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C35">
-        <v>702</v>
-      </c>
-      <c r="E35" s="3">
-        <v>525</v>
-      </c>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -1607,12 +1310,7 @@
       <c r="B36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C36">
-        <v>702</v>
-      </c>
-      <c r="E36" s="3">
-        <v>525</v>
-      </c>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -1621,12 +1319,7 @@
       <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C37">
-        <v>722</v>
-      </c>
-      <c r="E37" s="3">
-        <v>540</v>
-      </c>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
@@ -1635,12 +1328,7 @@
       <c r="B38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C38">
-        <v>722</v>
-      </c>
-      <c r="E38" s="3">
-        <v>540</v>
-      </c>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
@@ -1649,12 +1337,7 @@
       <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C39">
-        <v>722</v>
-      </c>
-      <c r="E39" s="3">
-        <v>540</v>
-      </c>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
@@ -1663,12 +1346,7 @@
       <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C40">
-        <v>722</v>
-      </c>
-      <c r="E40" s="3">
-        <v>540</v>
-      </c>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
@@ -1677,12 +1355,7 @@
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C41">
-        <v>726</v>
-      </c>
-      <c r="E41" s="3">
-        <v>202</v>
-      </c>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
@@ -1691,12 +1364,7 @@
       <c r="B42" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C42">
-        <v>725</v>
-      </c>
-      <c r="E42" s="3">
-        <v>542</v>
-      </c>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
@@ -1705,12 +1373,7 @@
       <c r="B43" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C43">
-        <v>724</v>
-      </c>
-      <c r="E43" s="3">
-        <v>544</v>
-      </c>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
@@ -1719,12 +1382,7 @@
       <c r="B44" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C44">
-        <v>724</v>
-      </c>
-      <c r="E44" s="3">
-        <v>544</v>
-      </c>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
@@ -1733,12 +1391,7 @@
       <c r="B45" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C45">
-        <v>724</v>
-      </c>
-      <c r="E45" s="3">
-        <v>544</v>
-      </c>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
@@ -1747,12 +1400,7 @@
       <c r="B46" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C46">
-        <v>724</v>
-      </c>
-      <c r="E46" s="3">
-        <v>544</v>
-      </c>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
@@ -1761,12 +1409,7 @@
       <c r="B47" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C47">
-        <v>743</v>
-      </c>
-      <c r="E47" s="3">
-        <v>545</v>
-      </c>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
@@ -1775,582 +1418,329 @@
       <c r="B48" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C48">
-        <v>743</v>
-      </c>
-      <c r="E48" s="3">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C49">
-        <v>743</v>
-      </c>
-      <c r="E49" s="3">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C50">
-        <v>743</v>
-      </c>
-      <c r="E50" s="3">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C51">
-        <v>646</v>
-      </c>
-      <c r="D51">
-        <v>646</v>
-      </c>
-      <c r="E51">
-        <v>646</v>
-      </c>
-      <c r="F51">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C52">
-        <v>646</v>
-      </c>
-      <c r="D52">
-        <v>646</v>
-      </c>
-      <c r="E52">
-        <v>646</v>
-      </c>
-      <c r="F52">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C53">
-        <v>646</v>
-      </c>
-      <c r="D53">
-        <v>646</v>
-      </c>
-      <c r="E53">
-        <v>646</v>
-      </c>
-      <c r="F53">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C54">
-        <v>646</v>
-      </c>
-      <c r="D54">
-        <v>646</v>
-      </c>
-      <c r="E54">
-        <v>646</v>
-      </c>
-      <c r="F54">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C55">
-        <v>646</v>
-      </c>
-      <c r="D55">
-        <v>646</v>
-      </c>
-      <c r="E55">
-        <v>646</v>
-      </c>
-      <c r="F55">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C56">
-        <v>646</v>
-      </c>
-      <c r="D56">
-        <v>646</v>
-      </c>
-      <c r="E56">
-        <v>646</v>
-      </c>
-      <c r="F56">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C57">
-        <v>645</v>
-      </c>
-      <c r="D57">
-        <v>645</v>
-      </c>
-      <c r="E57">
-        <v>645</v>
-      </c>
-      <c r="F57">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C58">
-        <v>645</v>
-      </c>
-      <c r="D58">
-        <v>645</v>
-      </c>
-      <c r="E58">
-        <v>645</v>
-      </c>
-      <c r="F58">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C59">
-        <v>645</v>
-      </c>
-      <c r="D59">
-        <v>645</v>
-      </c>
-      <c r="E59">
-        <v>645</v>
-      </c>
-      <c r="F59">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C60">
-        <v>645</v>
-      </c>
-      <c r="D60">
-        <v>645</v>
-      </c>
-      <c r="E60">
-        <v>645</v>
-      </c>
-      <c r="F60">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C63">
-        <v>640</v>
-      </c>
-      <c r="D63">
-        <v>640</v>
-      </c>
-      <c r="E63">
-        <v>640</v>
-      </c>
-      <c r="F63">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C64">
-        <v>640</v>
-      </c>
-      <c r="D64">
-        <v>640</v>
-      </c>
-      <c r="E64">
-        <v>640</v>
-      </c>
-      <c r="F64">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C65">
-        <v>640</v>
-      </c>
-      <c r="D65">
-        <v>640</v>
-      </c>
-      <c r="E65">
-        <v>640</v>
-      </c>
-      <c r="F65">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C66">
-        <v>640</v>
-      </c>
-      <c r="D66">
-        <v>640</v>
-      </c>
-      <c r="E66">
-        <v>640</v>
-      </c>
-      <c r="F66">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C67">
-        <v>629</v>
-      </c>
-      <c r="D67">
-        <v>629</v>
-      </c>
-      <c r="E67">
-        <v>629</v>
-      </c>
-      <c r="F67">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C68">
-        <v>629</v>
-      </c>
-      <c r="D68">
-        <v>629</v>
-      </c>
-      <c r="E68">
-        <v>629</v>
-      </c>
-      <c r="F68">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C69">
-        <v>629</v>
-      </c>
-      <c r="D69">
-        <v>629</v>
-      </c>
-      <c r="E69">
-        <v>629</v>
-      </c>
-      <c r="F69">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C70">
-        <v>629</v>
-      </c>
-      <c r="D70">
-        <v>629</v>
-      </c>
-      <c r="E70">
-        <v>629</v>
-      </c>
-      <c r="F70">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
       <c r="B86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C89">
-        <v>519</v>
-      </c>
-      <c r="D89">
-        <v>519</v>
-      </c>
-      <c r="E89">
-        <v>519</v>
-      </c>
-      <c r="F89">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C90">
-        <v>329</v>
-      </c>
-      <c r="D90">
-        <v>329</v>
-      </c>
-      <c r="E90">
-        <v>329</v>
-      </c>
-      <c r="F90">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
     </row>
@@ -6045,25 +5435,25 @@
         <v>128</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -6104,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N2">
         <v>202</v>
@@ -6163,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N3" s="3">
         <v>940</v>
@@ -6222,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N4" s="3">
         <v>925</v>
@@ -6281,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N5" s="3">
         <v>923</v>
@@ -6340,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N6" s="3">
         <v>921</v>
@@ -6395,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N7" s="3">
         <v>902</v>
@@ -6450,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N8" s="3">
         <v>906</v>
@@ -6505,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N9" s="3">
         <v>845</v>
@@ -6560,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N10" s="3">
         <v>840</v>
@@ -6615,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N11" s="3">
         <v>826</v>
@@ -6670,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N12" s="3">
         <v>806</v>
@@ -6725,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="N13" s="3">
         <v>202</v>
@@ -6788,7 +6178,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="M15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -6829,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N16">
         <v>329</v>
@@ -6888,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N17">
         <v>329</v>
@@ -6947,7 +6337,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N18">
         <v>329</v>
@@ -7006,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N19">
         <v>329</v>
@@ -7066,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N20" s="6">
         <v>725</v>
@@ -7126,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N21" s="7">
         <v>701</v>
@@ -7186,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N22" s="7">
         <v>701</v>
@@ -7246,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N23" s="7">
         <v>701</v>
@@ -7305,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N24" s="8">
         <v>722</v>
@@ -7365,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N25" s="8">
         <v>722</v>
@@ -7425,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N26" s="9">
         <v>740</v>
@@ -7485,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N27" s="9">
         <v>740</v>
@@ -7544,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N28" s="10">
         <v>743</v>
@@ -7603,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N29" s="10">
         <v>743</v>
@@ -7629,7 +7019,7 @@
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
@@ -7670,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N31" s="7">
         <v>321</v>
@@ -7717,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N32" s="7">
         <v>321</v>
@@ -7764,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N33" s="7">
         <v>321</v>
@@ -7812,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N34" s="8">
         <v>319</v>
@@ -7861,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N35" s="8">
         <v>319</v>
@@ -7910,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N36" s="9">
         <v>323</v>
@@ -7959,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N37" s="9">
         <v>323</v>
@@ -8007,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N38" s="10">
         <v>327</v>
@@ -8055,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N39" s="10">
         <v>327</v>
@@ -8109,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N41" s="7">
         <v>701</v>
@@ -8157,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N42" s="7">
         <v>701</v>
@@ -8205,7 +7595,7 @@
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N43" s="7">
         <v>701</v>
@@ -8253,7 +7643,7 @@
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N44" s="8">
         <v>722</v>
@@ -8302,7 +7692,7 @@
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N45" s="8">
         <v>722</v>
@@ -8351,7 +7741,7 @@
         <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N46" s="9">
         <v>740</v>
@@ -8400,7 +7790,7 @@
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N47" s="9">
         <v>740</v>
@@ -8449,7 +7839,7 @@
         <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N48" s="10">
         <v>743</v>
@@ -8498,7 +7888,7 @@
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N49" s="10">
         <v>743</v>
@@ -8554,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N51" s="7">
         <v>701</v>
@@ -8603,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N52" s="7">
         <v>701</v>
@@ -8652,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N53" s="7">
         <v>701</v>
@@ -8700,7 +8090,7 @@
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N54" s="8">
         <v>722</v>
@@ -8749,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N55" s="8">
         <v>722</v>
@@ -8798,7 +8188,7 @@
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N56" s="9">
         <v>740</v>
@@ -8847,7 +8237,7 @@
         <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N57" s="9">
         <v>740</v>
@@ -8896,7 +8286,7 @@
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N58" s="10">
         <v>743</v>
@@ -8945,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N59" s="10">
         <v>743</v>
@@ -8999,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O61" s="7">
         <v>702</v>
@@ -9047,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O62" s="7">
         <v>702</v>
@@ -9095,7 +8485,7 @@
         <v>1</v>
       </c>
       <c r="M63" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O63" s="7">
         <v>702</v>
@@ -9142,7 +8532,7 @@
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O64" s="8">
         <v>724</v>
@@ -9189,7 +8579,7 @@
         <v>1</v>
       </c>
       <c r="M65" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O65" s="8">
         <v>724</v>
@@ -9236,7 +8626,7 @@
         <v>1</v>
       </c>
       <c r="M66" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O66" s="9">
         <v>742</v>
@@ -9283,7 +8673,7 @@
         <v>1</v>
       </c>
       <c r="M67" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O67" s="9">
         <v>742</v>
@@ -9330,7 +8720,7 @@
         <v>1</v>
       </c>
       <c r="M68" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O68" s="10">
         <v>744</v>
@@ -9377,7 +8767,7 @@
         <v>1</v>
       </c>
       <c r="M69" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O69" s="10">
         <v>744</v>
@@ -9429,7 +8819,7 @@
         <v>1</v>
       </c>
       <c r="M71" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O71" s="7">
         <v>702</v>
@@ -9476,7 +8866,7 @@
         <v>1</v>
       </c>
       <c r="M72" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O72" s="7">
         <v>702</v>
@@ -9523,7 +8913,7 @@
         <v>1</v>
       </c>
       <c r="M73" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O73" s="7">
         <v>702</v>
@@ -9570,7 +8960,7 @@
         <v>1</v>
       </c>
       <c r="M74" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O74" s="8">
         <v>724</v>
@@ -9617,7 +9007,7 @@
         <v>1</v>
       </c>
       <c r="M75" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O75" s="8">
         <v>724</v>
@@ -9664,7 +9054,7 @@
         <v>1</v>
       </c>
       <c r="M76" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O76" s="9">
         <v>742</v>
@@ -9711,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="M77" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O77" s="9">
         <v>742</v>
@@ -9758,7 +9148,7 @@
         <v>1</v>
       </c>
       <c r="M78" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O78" s="10">
         <v>744</v>
@@ -9805,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="M79" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O79" s="10">
         <v>744</v>
@@ -9857,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="M81" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O81">
         <v>202</v>
@@ -9910,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="M82" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O82">
         <v>202</v>
@@ -9963,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O83">
         <v>202</v>
@@ -10016,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="M84" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O84">
         <v>202</v>
@@ -10069,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="M85" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O85">
         <v>202</v>
@@ -10122,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O86">
         <v>202</v>
@@ -10175,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O87">
         <v>202</v>
@@ -10228,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="M88" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O88">
         <v>202</v>
@@ -10281,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O89">
         <v>202</v>
@@ -13976,214 +13366,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCA803E-0660-F641-BDDB-024EE43C3378}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517AF821-DE73-E44B-B05F-E5374FFCFDC2}">
+  <dimension ref="A1:F264"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>45679</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>45679</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>45678</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>45681</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>45680</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>45678</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>45678</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>45679</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>45680</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>45679</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F52638-A0BD-4648-8682-FCD1751FE67B}">
-  <dimension ref="A1:F265"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14209,11 +13397,469 @@
       <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="2"/>
+      <c r="B264" s="2"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D265">
+    <sortCondition ref="A2:A265"/>
+    <sortCondition ref="B2:B265"/>
+    <sortCondition ref="C2:C265"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCA803E-0660-F641-BDDB-024EE43C3378}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F52638-A0BD-4648-8682-FCD1751FE67B}">
+  <dimension ref="A1:F265"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="A1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -14224,10 +13870,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>135</v>
@@ -14244,10 +13890,10 @@
         <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>136</v>
@@ -14264,7 +13910,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -14464,13 +14110,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -14522,7 +14168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF381A89-EC94-BD4E-AF94-947710DA3428}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -14728,7 +14374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B7BB07-9E9C-344A-8EF0-72CA0865EFBF}">
   <dimension ref="A1:E265"/>
   <sheetViews>
@@ -14944,7 +14590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB66886-AAD9-A442-BF69-AADD50D3EDBE}">
   <dimension ref="A1:E265"/>
   <sheetViews>

--- a/app/data/RegentsCalendar.xlsx
+++ b/app/data/RegentsCalendar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekstampone/Library/Mobile Documents/com~apple~CloudDocs/Developer/data-specialist-flask/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CE744A-25FC-8D46-9BD6-97000686BACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D46A80-55C8-7F43-A1A5-74A47DEC5A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="500" windowWidth="13640" windowHeight="17500" activeTab="2" xr2:uid="{98DCE2EE-096A-EF4C-9576-6BE138F05710}"/>
+    <workbookView xWindow="1700" yWindow="500" windowWidth="33560" windowHeight="28300" activeTab="1" xr2:uid="{98DCE2EE-096A-EF4C-9576-6BE138F05710}"/>
   </bookViews>
   <sheets>
     <sheet name="SectionProperties" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2023-7'!$A$1:$E$327</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2024-2'!$A$1:$E$327</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2024-7'!$A$1:$E$326</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SummerSectionProperties!$A$1:$L$1004</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SummerSectionProperties!$A$1:$K$1004</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="184">
   <si>
     <t>Day</t>
   </si>
@@ -427,9 +427,6 @@
     <t>scribe?</t>
   </si>
   <si>
-    <t>large_print?</t>
-  </si>
-  <si>
     <t>AM_Conflict?</t>
   </si>
   <si>
@@ -572,6 +569,39 @@
   </si>
   <si>
     <t>MXRJG</t>
+  </si>
+  <si>
+    <t>exam_num</t>
+  </si>
+  <si>
+    <t>1.5x_PM3_conflict</t>
+  </si>
+  <si>
+    <t>enl/1.5x_PM3_conflict</t>
+  </si>
+  <si>
+    <t>enl_PM3_conflict</t>
+  </si>
+  <si>
+    <t>2x_PM3_conflict</t>
+  </si>
+  <si>
+    <t>enl/2x_PM3_conflict</t>
+  </si>
+  <si>
+    <t>QR/1.5x_PM3_conflict</t>
+  </si>
+  <si>
+    <t>enl/QR/1.5x_PM3_conflict</t>
+  </si>
+  <si>
+    <t>QR/2x_PM3_conflict</t>
+  </si>
+  <si>
+    <t>enl/QR/2x_PM3_conflict</t>
+  </si>
+  <si>
+    <t>_PM3</t>
   </si>
 </sst>
 </file>
@@ -1701,7 +1731,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1717,7 +1747,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -5384,20 +5414,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6309B1-B2F2-C24D-9683-349831E0A64F}">
-  <dimension ref="A1:W1004"/>
+  <dimension ref="A1:V1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="T51" sqref="T51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="R100" sqref="R100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="4.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -5408,7 +5448,7 @@
         <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>121</v>
@@ -5432,12 +5472,12 @@
         <v>127</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="N1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>147</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -5452,11 +5492,8 @@
       <c r="R1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5490,11 +5527,11 @@
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>160</v>
+      <c r="L2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2">
+        <v>202</v>
       </c>
       <c r="N2">
         <v>202</v>
@@ -5511,11 +5548,8 @@
       <c r="R2">
         <v>202</v>
       </c>
-      <c r="S2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5549,32 +5583,29 @@
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>160</v>
-      </c>
-      <c r="N3" s="3">
+      <c r="L3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M3" s="3">
         <v>940</v>
       </c>
-      <c r="O3">
+      <c r="N3">
         <v>801</v>
       </c>
-      <c r="P3" s="3">
+      <c r="O3" s="3">
         <v>940</v>
       </c>
-      <c r="Q3">
+      <c r="P3">
         <v>801</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>646</v>
       </c>
       <c r="R3" s="3">
         <v>646</v>
       </c>
-      <c r="S3" s="3">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5608,32 +5639,29 @@
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>160</v>
+      <c r="L4" t="s">
+        <v>159</v>
+      </c>
+      <c r="M4" s="3">
+        <v>925</v>
       </c>
       <c r="N4" s="3">
+        <v>802</v>
+      </c>
+      <c r="O4" s="3">
         <v>925</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>802</v>
       </c>
-      <c r="P4" s="3">
-        <v>925</v>
-      </c>
       <c r="Q4" s="3">
-        <v>802</v>
+        <v>645</v>
       </c>
       <c r="R4" s="3">
         <v>645</v>
       </c>
-      <c r="S4" s="3">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5667,32 +5695,29 @@
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>160</v>
+      <c r="L5" t="s">
+        <v>159</v>
+      </c>
+      <c r="M5" s="3">
+        <v>923</v>
       </c>
       <c r="N5" s="3">
+        <v>822</v>
+      </c>
+      <c r="O5" s="3">
         <v>923</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="3">
         <v>822</v>
       </c>
-      <c r="P5" s="3">
-        <v>923</v>
-      </c>
       <c r="Q5" s="3">
-        <v>822</v>
+        <v>640</v>
       </c>
       <c r="R5" s="3">
         <v>640</v>
       </c>
-      <c r="S5" s="3">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5726,28 +5751,25 @@
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>160</v>
+      <c r="L6" t="s">
+        <v>159</v>
+      </c>
+      <c r="M6" s="3">
+        <v>921</v>
       </c>
       <c r="N6" s="3">
+        <v>824</v>
+      </c>
+      <c r="O6" s="3">
         <v>921</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>824</v>
       </c>
-      <c r="P6" s="3">
-        <v>921</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>824</v>
-      </c>
+      <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5781,28 +5803,25 @@
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>160</v>
+      <c r="L7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M7" s="3">
+        <v>902</v>
       </c>
       <c r="N7" s="3">
+        <v>826</v>
+      </c>
+      <c r="O7" s="3">
         <v>902</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>826</v>
       </c>
-      <c r="P7" s="3">
-        <v>902</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>826</v>
-      </c>
+      <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5836,28 +5855,25 @@
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>160</v>
+      <c r="L8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M8" s="3">
+        <v>906</v>
       </c>
       <c r="N8" s="3">
+        <v>840</v>
+      </c>
+      <c r="O8" s="3">
         <v>906</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>840</v>
       </c>
-      <c r="P8" s="3">
-        <v>906</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>840</v>
-      </c>
+      <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5891,11 +5907,11 @@
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>160</v>
+      <c r="L9" t="s">
+        <v>159</v>
+      </c>
+      <c r="M9" s="3">
+        <v>845</v>
       </c>
       <c r="N9" s="3">
         <v>845</v>
@@ -5906,13 +5922,10 @@
       <c r="P9" s="3">
         <v>845</v>
       </c>
-      <c r="Q9" s="3">
-        <v>845</v>
-      </c>
+      <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5946,28 +5959,25 @@
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>160</v>
+      <c r="L10" t="s">
+        <v>159</v>
+      </c>
+      <c r="M10" s="3">
+        <v>840</v>
       </c>
       <c r="N10" s="3">
+        <v>902</v>
+      </c>
+      <c r="O10" s="3">
         <v>840</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>902</v>
       </c>
-      <c r="P10" s="3">
-        <v>840</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>902</v>
-      </c>
+      <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -6001,28 +6011,25 @@
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>160</v>
+      <c r="L11" t="s">
+        <v>159</v>
+      </c>
+      <c r="M11" s="3">
+        <v>826</v>
       </c>
       <c r="N11" s="3">
+        <v>906</v>
+      </c>
+      <c r="O11" s="3">
         <v>826</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>906</v>
       </c>
-      <c r="P11" s="3">
-        <v>826</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>906</v>
-      </c>
+      <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -6048,19 +6055,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>153</v>
+      <c r="L12" t="s">
+        <v>152</v>
+      </c>
+      <c r="M12" s="3">
+        <v>806</v>
       </c>
       <c r="N12" s="3">
         <v>806</v>
@@ -6071,13 +6078,10 @@
       <c r="P12" s="3">
         <v>806</v>
       </c>
-      <c r="Q12" s="3">
-        <v>806</v>
-      </c>
+      <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -6106,16 +6110,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>154</v>
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>153</v>
+      </c>
+      <c r="M13" s="3">
+        <v>202</v>
       </c>
       <c r="N13" s="3">
         <v>202</v>
@@ -6126,18 +6130,15 @@
       <c r="P13" s="3">
         <v>202</v>
       </c>
-      <c r="Q13" s="3">
-        <v>202</v>
-      </c>
+      <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -6164,29 +6165,26 @@
         <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="M15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -6215,11 +6213,11 @@
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>160</v>
+      <c r="L16" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16">
+        <v>329</v>
       </c>
       <c r="N16">
         <v>329</v>
@@ -6236,16 +6234,13 @@
       <c r="R16">
         <v>329</v>
       </c>
-      <c r="S16">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -6266,19 +6261,19 @@
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>160</v>
+      <c r="L17" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17">
+        <v>329</v>
       </c>
       <c r="N17">
         <v>329</v>
@@ -6295,16 +6290,13 @@
       <c r="R17">
         <v>329</v>
       </c>
-      <c r="S17">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -6331,13 +6323,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" t="s">
-        <v>160</v>
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18">
+        <v>329</v>
       </c>
       <c r="N18">
         <v>329</v>
@@ -6354,16 +6346,13 @@
       <c r="R18">
         <v>329</v>
       </c>
-      <c r="S18">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -6387,16 +6376,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>160</v>
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19">
+        <v>329</v>
       </c>
       <c r="N19">
         <v>329</v>
@@ -6413,12 +6402,9 @@
       <c r="R19">
         <v>329</v>
       </c>
-      <c r="S19">
-        <v>329</v>
-      </c>
-      <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -6452,33 +6438,30 @@
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>160</v>
+      <c r="L20" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" s="6">
+        <v>725</v>
       </c>
       <c r="N20" s="6">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O20" s="6">
-        <v>726</v>
+        <v>522</v>
       </c>
       <c r="P20" s="6">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="Q20" s="6">
-        <v>529</v>
+        <v>219</v>
       </c>
       <c r="R20" s="6">
         <v>219</v>
       </c>
-      <c r="S20" s="6">
-        <v>219</v>
-      </c>
-      <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -6512,33 +6495,30 @@
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>160</v>
+      <c r="L21" t="s">
+        <v>159</v>
+      </c>
+      <c r="M21" s="7">
+        <v>701</v>
       </c>
       <c r="N21" s="7">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="O21" s="7">
-        <v>702</v>
+        <v>523</v>
       </c>
       <c r="P21" s="7">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="Q21" s="7">
-        <v>540</v>
+        <v>219</v>
       </c>
       <c r="R21" s="7">
         <v>219</v>
       </c>
-      <c r="S21" s="7">
-        <v>219</v>
-      </c>
-      <c r="W21" s="3"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -6572,33 +6552,30 @@
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" t="s">
-        <v>160</v>
+      <c r="L22" t="s">
+        <v>159</v>
+      </c>
+      <c r="M22" s="7">
+        <v>701</v>
       </c>
       <c r="N22" s="7">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="O22" s="7">
-        <v>702</v>
+        <v>523</v>
       </c>
       <c r="P22" s="7">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="Q22" s="7">
-        <v>540</v>
+        <v>219</v>
       </c>
       <c r="R22" s="7">
         <v>219</v>
       </c>
-      <c r="S22" s="7">
-        <v>219</v>
-      </c>
-      <c r="W22" s="3"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V22" s="3"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -6632,32 +6609,29 @@
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" t="s">
-        <v>160</v>
+      <c r="L23" t="s">
+        <v>159</v>
+      </c>
+      <c r="M23" s="7">
+        <v>701</v>
       </c>
       <c r="N23" s="7">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="O23" s="7">
-        <v>702</v>
+        <v>523</v>
       </c>
       <c r="P23" s="7">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="Q23" s="7">
-        <v>540</v>
+        <v>219</v>
       </c>
       <c r="R23" s="7">
         <v>219</v>
       </c>
-      <c r="S23" s="7">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -6691,33 +6665,30 @@
       <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="L24" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" t="s">
-        <v>160</v>
+      <c r="L24" t="s">
+        <v>159</v>
+      </c>
+      <c r="M24" s="8">
+        <v>722</v>
       </c>
       <c r="N24" s="8">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="O24" s="8">
-        <v>724</v>
+        <v>524</v>
       </c>
       <c r="P24" s="8">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="Q24" s="8">
-        <v>542</v>
+        <v>225</v>
       </c>
       <c r="R24" s="8">
         <v>225</v>
       </c>
-      <c r="S24" s="8">
-        <v>225</v>
-      </c>
-      <c r="U24" s="3"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T24" s="3"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -6751,33 +6722,30 @@
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" t="s">
-        <v>160</v>
+      <c r="L25" t="s">
+        <v>159</v>
+      </c>
+      <c r="M25" s="8">
+        <v>722</v>
       </c>
       <c r="N25" s="8">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="O25" s="8">
-        <v>724</v>
+        <v>524</v>
       </c>
       <c r="P25" s="8">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="Q25" s="8">
-        <v>542</v>
+        <v>225</v>
       </c>
       <c r="R25" s="8">
         <v>225</v>
       </c>
-      <c r="S25" s="8">
-        <v>225</v>
-      </c>
-      <c r="U25" s="3"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -6811,33 +6779,30 @@
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
-        <v>160</v>
+      <c r="L26" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="9">
+        <v>740</v>
       </c>
       <c r="N26" s="9">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O26" s="9">
-        <v>742</v>
+        <v>525</v>
       </c>
       <c r="P26" s="9">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="Q26" s="9">
-        <v>544</v>
+        <v>227</v>
       </c>
       <c r="R26" s="9">
         <v>227</v>
       </c>
-      <c r="S26" s="9">
-        <v>227</v>
-      </c>
-      <c r="U26" s="3"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T26" s="3"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -6871,32 +6836,29 @@
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" t="s">
-        <v>160</v>
+      <c r="L27" t="s">
+        <v>159</v>
+      </c>
+      <c r="M27" s="9">
+        <v>740</v>
       </c>
       <c r="N27" s="9">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O27" s="9">
-        <v>742</v>
+        <v>525</v>
       </c>
       <c r="P27" s="9">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="Q27" s="9">
-        <v>544</v>
+        <v>227</v>
       </c>
       <c r="R27" s="9">
         <v>227</v>
       </c>
-      <c r="S27" s="9">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -6930,32 +6892,29 @@
       <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="L28" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28" t="s">
-        <v>160</v>
+      <c r="L28" t="s">
+        <v>159</v>
+      </c>
+      <c r="M28" s="10">
+        <v>743</v>
       </c>
       <c r="N28" s="10">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="O28" s="10">
-        <v>744</v>
+        <v>527</v>
       </c>
       <c r="P28" s="10">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="Q28" s="10">
-        <v>545</v>
+        <v>229</v>
       </c>
       <c r="R28" s="10">
         <v>229</v>
       </c>
-      <c r="S28" s="10">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -6989,40 +6948,37 @@
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="L29" t="b">
-        <v>0</v>
-      </c>
-      <c r="M29" t="s">
-        <v>160</v>
+      <c r="L29" t="s">
+        <v>159</v>
+      </c>
+      <c r="M29" s="10">
+        <v>743</v>
       </c>
       <c r="N29" s="10">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="O29" s="10">
-        <v>744</v>
+        <v>527</v>
       </c>
       <c r="P29" s="10">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="Q29" s="10">
-        <v>545</v>
+        <v>229</v>
       </c>
       <c r="R29" s="10">
         <v>229</v>
       </c>
-      <c r="S29" s="10">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="M30" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -7048,28 +7004,25 @@
         <v>0</v>
       </c>
       <c r="I31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
-        <v>153</v>
+      <c r="L31" t="s">
+        <v>152</v>
+      </c>
+      <c r="M31" s="7">
+        <v>321</v>
       </c>
       <c r="N31" s="7">
         <v>321</v>
       </c>
-      <c r="O31" s="7">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -7095,28 +7048,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32" t="s">
-        <v>153</v>
+      <c r="L32" t="s">
+        <v>152</v>
+      </c>
+      <c r="M32" s="7">
+        <v>321</v>
       </c>
       <c r="N32" s="7">
         <v>321</v>
       </c>
-      <c r="O32" s="7">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -7142,29 +7092,26 @@
         <v>0</v>
       </c>
       <c r="I33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="b">
-        <v>0</v>
-      </c>
-      <c r="M33" t="s">
-        <v>153</v>
+      <c r="L33" t="s">
+        <v>152</v>
+      </c>
+      <c r="M33" s="7">
+        <v>321</v>
       </c>
       <c r="N33" s="7">
         <v>321</v>
       </c>
-      <c r="O33" s="7">
-        <v>321</v>
-      </c>
-      <c r="W33" s="3"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V33" s="3"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -7190,30 +7137,27 @@
         <v>0</v>
       </c>
       <c r="I34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34" t="s">
-        <v>153</v>
+      <c r="L34" t="s">
+        <v>152</v>
+      </c>
+      <c r="M34" s="8">
+        <v>319</v>
       </c>
       <c r="N34" s="8">
         <v>319</v>
       </c>
-      <c r="O34" s="8">
-        <v>319</v>
-      </c>
-      <c r="U34" s="3"/>
-      <c r="W34" s="3"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T34" s="3"/>
+      <c r="V34" s="3"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -7239,30 +7183,27 @@
         <v>0</v>
       </c>
       <c r="I35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35" t="s">
-        <v>153</v>
+      <c r="L35" t="s">
+        <v>152</v>
+      </c>
+      <c r="M35" s="8">
+        <v>319</v>
       </c>
       <c r="N35" s="8">
         <v>319</v>
       </c>
-      <c r="O35" s="8">
-        <v>319</v>
-      </c>
-      <c r="U35" s="3"/>
-      <c r="W35" s="3"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T35" s="3"/>
+      <c r="V35" s="3"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -7288,30 +7229,27 @@
         <v>0</v>
       </c>
       <c r="I36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
       </c>
-      <c r="L36" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" t="s">
-        <v>153</v>
+      <c r="L36" t="s">
+        <v>152</v>
+      </c>
+      <c r="M36" s="9">
+        <v>323</v>
       </c>
       <c r="N36" s="9">
         <v>323</v>
       </c>
-      <c r="O36" s="9">
-        <v>323</v>
-      </c>
-      <c r="U36" s="3"/>
-      <c r="W36" s="3"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T36" s="3"/>
+      <c r="V36" s="3"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -7337,29 +7275,26 @@
         <v>0</v>
       </c>
       <c r="I37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
-      <c r="L37" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" t="s">
-        <v>153</v>
+      <c r="L37" t="s">
+        <v>152</v>
+      </c>
+      <c r="M37" s="9">
+        <v>323</v>
       </c>
       <c r="N37" s="9">
         <v>323</v>
       </c>
-      <c r="O37" s="9">
-        <v>323</v>
-      </c>
-      <c r="W37" s="3"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V37" s="3"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -7385,29 +7320,26 @@
         <v>0</v>
       </c>
       <c r="I38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" t="b">
-        <v>0</v>
-      </c>
-      <c r="M38" t="s">
-        <v>153</v>
+      <c r="L38" t="s">
+        <v>152</v>
+      </c>
+      <c r="M38" s="10">
+        <v>327</v>
       </c>
       <c r="N38" s="10">
         <v>327</v>
       </c>
-      <c r="O38" s="10">
-        <v>327</v>
-      </c>
-      <c r="W38" s="3"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V38" s="3"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -7433,35 +7365,32 @@
         <v>0</v>
       </c>
       <c r="I39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
       </c>
-      <c r="L39" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" t="s">
-        <v>153</v>
+      <c r="L39" t="s">
+        <v>152</v>
+      </c>
+      <c r="M39" s="10">
+        <v>327</v>
       </c>
       <c r="N39" s="10">
         <v>327</v>
       </c>
-      <c r="O39" s="10">
-        <v>327</v>
-      </c>
-      <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -7493,23 +7422,20 @@
         <v>0</v>
       </c>
       <c r="K41" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" t="b">
-        <v>1</v>
-      </c>
-      <c r="M41" t="s">
-        <v>155</v>
-      </c>
-      <c r="N41" s="7">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>154</v>
+      </c>
+      <c r="M41" s="7">
         <v>701</v>
       </c>
-      <c r="P41" s="7">
+      <c r="O41" s="7">
         <v>701</v>
       </c>
-      <c r="W41" s="3"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V41" s="3"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -7541,23 +7467,20 @@
         <v>0</v>
       </c>
       <c r="K42" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" t="b">
-        <v>1</v>
-      </c>
-      <c r="M42" t="s">
-        <v>155</v>
-      </c>
-      <c r="N42" s="7">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>154</v>
+      </c>
+      <c r="M42" s="7">
         <v>701</v>
       </c>
-      <c r="P42" s="7">
+      <c r="O42" s="7">
         <v>701</v>
       </c>
-      <c r="W42" s="3"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V42" s="3"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -7589,23 +7512,20 @@
         <v>0</v>
       </c>
       <c r="K43" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" t="b">
-        <v>1</v>
-      </c>
-      <c r="M43" t="s">
-        <v>155</v>
-      </c>
-      <c r="N43" s="7">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>154</v>
+      </c>
+      <c r="M43" s="7">
         <v>701</v>
       </c>
-      <c r="P43" s="7">
+      <c r="O43" s="7">
         <v>701</v>
       </c>
-      <c r="W43" s="3"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V43" s="3"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -7637,24 +7557,21 @@
         <v>0</v>
       </c>
       <c r="K44" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" t="b">
-        <v>1</v>
-      </c>
-      <c r="M44" t="s">
-        <v>155</v>
-      </c>
-      <c r="N44" s="8">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>154</v>
+      </c>
+      <c r="M44" s="8">
         <v>722</v>
       </c>
-      <c r="P44" s="8">
+      <c r="O44" s="8">
         <v>722</v>
       </c>
-      <c r="U44" s="3"/>
-      <c r="W44" s="3"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T44" s="3"/>
+      <c r="V44" s="3"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -7686,24 +7603,21 @@
         <v>0</v>
       </c>
       <c r="K45" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" t="b">
-        <v>1</v>
-      </c>
-      <c r="M45" t="s">
-        <v>155</v>
-      </c>
-      <c r="N45" s="8">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>154</v>
+      </c>
+      <c r="M45" s="8">
         <v>722</v>
       </c>
-      <c r="P45" s="8">
+      <c r="O45" s="8">
         <v>722</v>
       </c>
-      <c r="U45" s="3"/>
-      <c r="W45" s="3"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T45" s="3"/>
+      <c r="V45" s="3"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -7735,24 +7649,21 @@
         <v>0</v>
       </c>
       <c r="K46" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" t="b">
-        <v>1</v>
-      </c>
-      <c r="M46" t="s">
-        <v>155</v>
-      </c>
-      <c r="N46" s="9">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>154</v>
+      </c>
+      <c r="M46" s="9">
         <v>740</v>
       </c>
-      <c r="P46" s="9">
+      <c r="O46" s="9">
         <v>740</v>
       </c>
-      <c r="U46" s="3"/>
-      <c r="W46" s="3"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T46" s="3"/>
+      <c r="V46" s="3"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -7784,24 +7695,21 @@
         <v>0</v>
       </c>
       <c r="K47" t="b">
-        <v>0</v>
-      </c>
-      <c r="L47" t="b">
-        <v>1</v>
-      </c>
-      <c r="M47" t="s">
-        <v>155</v>
-      </c>
-      <c r="N47" s="9">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>154</v>
+      </c>
+      <c r="M47" s="9">
         <v>740</v>
       </c>
-      <c r="P47" s="9">
+      <c r="O47" s="9">
         <v>740</v>
       </c>
-      <c r="U47" s="3"/>
-      <c r="W47" s="3"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T47" s="3"/>
+      <c r="V47" s="3"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -7833,24 +7741,21 @@
         <v>0</v>
       </c>
       <c r="K48" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" t="b">
-        <v>1</v>
-      </c>
-      <c r="M48" t="s">
-        <v>155</v>
-      </c>
-      <c r="N48" s="10">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>154</v>
+      </c>
+      <c r="M48" s="10">
         <v>743</v>
       </c>
-      <c r="P48" s="10">
+      <c r="O48" s="10">
         <v>743</v>
       </c>
-      <c r="U48" s="3"/>
-      <c r="W48" s="3"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T48" s="3"/>
+      <c r="V48" s="3"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -7882,31 +7787,28 @@
         <v>0</v>
       </c>
       <c r="K49" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" t="b">
-        <v>1</v>
-      </c>
-      <c r="M49" t="s">
-        <v>155</v>
-      </c>
-      <c r="N49" s="10">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>154</v>
+      </c>
+      <c r="M49" s="10">
         <v>743</v>
       </c>
-      <c r="P49" s="10">
+      <c r="O49" s="10">
         <v>743</v>
       </c>
-      <c r="U49" s="3"/>
-      <c r="W49" s="3"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T49" s="3"/>
+      <c r="V49" s="3"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="U50" s="3"/>
-      <c r="W50" s="3"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T50" s="3"/>
+      <c r="V50" s="3"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -7938,24 +7840,21 @@
         <v>0</v>
       </c>
       <c r="K51" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" t="b">
-        <v>1</v>
-      </c>
-      <c r="M51" t="s">
-        <v>156</v>
-      </c>
-      <c r="N51" s="7">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>155</v>
+      </c>
+      <c r="M51" s="7">
         <v>701</v>
       </c>
-      <c r="Q51" s="7">
+      <c r="P51" s="7">
         <v>702</v>
       </c>
-      <c r="U51" s="3"/>
-      <c r="W51" s="3"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T51" s="3"/>
+      <c r="V51" s="3"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -7987,24 +7886,21 @@
         <v>0</v>
       </c>
       <c r="K52" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" t="b">
-        <v>1</v>
-      </c>
-      <c r="M52" t="s">
-        <v>156</v>
-      </c>
-      <c r="N52" s="7">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>155</v>
+      </c>
+      <c r="M52" s="7">
         <v>701</v>
       </c>
-      <c r="Q52" s="7">
+      <c r="P52" s="7">
         <v>702</v>
       </c>
-      <c r="U52" s="3"/>
-      <c r="W52" s="3"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T52" s="3"/>
+      <c r="V52" s="3"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -8036,23 +7932,20 @@
         <v>0</v>
       </c>
       <c r="K53" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" t="b">
-        <v>1</v>
-      </c>
-      <c r="M53" t="s">
-        <v>156</v>
-      </c>
-      <c r="N53" s="7">
+        <v>1</v>
+      </c>
+      <c r="L53" t="s">
+        <v>155</v>
+      </c>
+      <c r="M53" s="7">
         <v>701</v>
       </c>
-      <c r="Q53" s="7">
+      <c r="P53" s="7">
         <v>702</v>
       </c>
-      <c r="W53" s="3"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V53" s="3"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -8084,24 +7977,21 @@
         <v>0</v>
       </c>
       <c r="K54" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" t="b">
-        <v>1</v>
-      </c>
-      <c r="M54" t="s">
-        <v>156</v>
-      </c>
-      <c r="N54" s="8">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>155</v>
+      </c>
+      <c r="M54" s="8">
         <v>722</v>
       </c>
-      <c r="Q54" s="8">
+      <c r="P54" s="8">
         <v>724</v>
       </c>
-      <c r="U54" s="3"/>
-      <c r="W54" s="3"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T54" s="3"/>
+      <c r="V54" s="3"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -8133,24 +8023,21 @@
         <v>0</v>
       </c>
       <c r="K55" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" t="b">
-        <v>1</v>
-      </c>
-      <c r="M55" t="s">
-        <v>156</v>
-      </c>
-      <c r="N55" s="8">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>155</v>
+      </c>
+      <c r="M55" s="8">
         <v>722</v>
       </c>
-      <c r="Q55" s="8">
+      <c r="P55" s="8">
         <v>724</v>
       </c>
-      <c r="U55" s="3"/>
-      <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -8182,24 +8069,21 @@
         <v>0</v>
       </c>
       <c r="K56" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" t="b">
-        <v>1</v>
-      </c>
-      <c r="M56" t="s">
-        <v>156</v>
-      </c>
-      <c r="N56" s="9">
+        <v>1</v>
+      </c>
+      <c r="L56" t="s">
+        <v>155</v>
+      </c>
+      <c r="M56" s="9">
         <v>740</v>
       </c>
-      <c r="Q56" s="9">
+      <c r="P56" s="9">
         <v>742</v>
       </c>
-      <c r="U56" s="3"/>
-      <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -8231,24 +8115,21 @@
         <v>0</v>
       </c>
       <c r="K57" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" t="b">
-        <v>1</v>
-      </c>
-      <c r="M57" t="s">
-        <v>156</v>
-      </c>
-      <c r="N57" s="9">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
+        <v>155</v>
+      </c>
+      <c r="M57" s="9">
         <v>740</v>
       </c>
-      <c r="Q57" s="9">
+      <c r="P57" s="9">
         <v>742</v>
       </c>
-      <c r="U57" s="3"/>
-      <c r="W57" s="3"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T57" s="3"/>
+      <c r="V57" s="3"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -8280,24 +8161,21 @@
         <v>0</v>
       </c>
       <c r="K58" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" t="b">
-        <v>1</v>
-      </c>
-      <c r="M58" t="s">
-        <v>156</v>
-      </c>
-      <c r="N58" s="10">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>155</v>
+      </c>
+      <c r="M58" s="10">
         <v>743</v>
       </c>
-      <c r="Q58" s="10">
+      <c r="P58" s="10">
         <v>744</v>
       </c>
-      <c r="U58" s="3"/>
-      <c r="W58" s="3"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T58" s="3"/>
+      <c r="V58" s="3"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -8329,29 +8207,26 @@
         <v>0</v>
       </c>
       <c r="K59" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" t="b">
-        <v>1</v>
-      </c>
-      <c r="M59" t="s">
-        <v>156</v>
-      </c>
-      <c r="N59" s="10">
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
+        <v>155</v>
+      </c>
+      <c r="M59" s="10">
         <v>743</v>
       </c>
-      <c r="Q59" s="10">
+      <c r="P59" s="10">
         <v>744</v>
       </c>
-      <c r="U59" s="3"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T59" s="3"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="U60" s="3"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T60" s="3"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -8383,23 +8258,20 @@
         <v>0</v>
       </c>
       <c r="K61" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" t="b">
-        <v>1</v>
-      </c>
-      <c r="M61" t="s">
-        <v>157</v>
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
+        <v>156</v>
+      </c>
+      <c r="N61" s="7">
+        <v>702</v>
       </c>
       <c r="O61" s="7">
-        <v>702</v>
-      </c>
-      <c r="P61" s="7">
         <v>701</v>
       </c>
-      <c r="U61" s="3"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T61" s="3"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -8431,23 +8303,20 @@
         <v>0</v>
       </c>
       <c r="K62" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62" t="b">
-        <v>1</v>
-      </c>
-      <c r="M62" t="s">
-        <v>157</v>
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>156</v>
+      </c>
+      <c r="N62" s="7">
+        <v>702</v>
       </c>
       <c r="O62" s="7">
-        <v>702</v>
-      </c>
-      <c r="P62" s="7">
         <v>701</v>
       </c>
-      <c r="U62" s="3"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T62" s="3"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -8479,22 +8348,19 @@
         <v>0</v>
       </c>
       <c r="K63" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" t="b">
-        <v>1</v>
-      </c>
-      <c r="M63" t="s">
-        <v>157</v>
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
+        <v>156</v>
+      </c>
+      <c r="N63" s="7">
+        <v>702</v>
       </c>
       <c r="O63" s="7">
-        <v>702</v>
-      </c>
-      <c r="P63" s="7">
         <v>701</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -8526,22 +8392,19 @@
         <v>0</v>
       </c>
       <c r="K64" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" t="b">
-        <v>1</v>
-      </c>
-      <c r="M64" t="s">
-        <v>157</v>
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
+        <v>156</v>
+      </c>
+      <c r="N64" s="8">
+        <v>724</v>
       </c>
       <c r="O64" s="8">
-        <v>724</v>
-      </c>
-      <c r="P64" s="8">
         <v>722</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -8573,22 +8436,19 @@
         <v>0</v>
       </c>
       <c r="K65" t="b">
-        <v>0</v>
-      </c>
-      <c r="L65" t="b">
-        <v>1</v>
-      </c>
-      <c r="M65" t="s">
-        <v>157</v>
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
+        <v>156</v>
+      </c>
+      <c r="N65" s="8">
+        <v>724</v>
       </c>
       <c r="O65" s="8">
-        <v>724</v>
-      </c>
-      <c r="P65" s="8">
         <v>722</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -8620,22 +8480,19 @@
         <v>0</v>
       </c>
       <c r="K66" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66" t="b">
-        <v>1</v>
-      </c>
-      <c r="M66" t="s">
-        <v>157</v>
+        <v>1</v>
+      </c>
+      <c r="L66" t="s">
+        <v>156</v>
+      </c>
+      <c r="N66" s="9">
+        <v>742</v>
       </c>
       <c r="O66" s="9">
-        <v>742</v>
-      </c>
-      <c r="P66" s="9">
         <v>740</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -8667,22 +8524,19 @@
         <v>0</v>
       </c>
       <c r="K67" t="b">
-        <v>0</v>
-      </c>
-      <c r="L67" t="b">
-        <v>1</v>
-      </c>
-      <c r="M67" t="s">
-        <v>157</v>
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
+        <v>156</v>
+      </c>
+      <c r="N67" s="9">
+        <v>742</v>
       </c>
       <c r="O67" s="9">
-        <v>742</v>
-      </c>
-      <c r="P67" s="9">
         <v>740</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -8714,22 +8568,19 @@
         <v>0</v>
       </c>
       <c r="K68" t="b">
-        <v>0</v>
-      </c>
-      <c r="L68" t="b">
-        <v>1</v>
-      </c>
-      <c r="M68" t="s">
-        <v>157</v>
+        <v>1</v>
+      </c>
+      <c r="L68" t="s">
+        <v>156</v>
+      </c>
+      <c r="N68" s="10">
+        <v>744</v>
       </c>
       <c r="O68" s="10">
-        <v>744</v>
-      </c>
-      <c r="P68" s="10">
         <v>743</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -8761,27 +8612,24 @@
         <v>0</v>
       </c>
       <c r="K69" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" t="b">
-        <v>1</v>
-      </c>
-      <c r="M69" t="s">
-        <v>157</v>
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
+        <v>156</v>
+      </c>
+      <c r="N69" s="10">
+        <v>744</v>
       </c>
       <c r="O69" s="10">
-        <v>744</v>
-      </c>
-      <c r="P69" s="10">
         <v>743</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -8813,22 +8661,19 @@
         <v>0</v>
       </c>
       <c r="K71" t="b">
-        <v>0</v>
-      </c>
-      <c r="L71" t="b">
-        <v>1</v>
-      </c>
-      <c r="M71" t="s">
-        <v>158</v>
-      </c>
-      <c r="O71" s="7">
+        <v>1</v>
+      </c>
+      <c r="L71" t="s">
+        <v>157</v>
+      </c>
+      <c r="N71" s="7">
         <v>702</v>
       </c>
-      <c r="Q71" s="7">
+      <c r="P71" s="7">
         <v>702</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -8860,22 +8705,19 @@
         <v>0</v>
       </c>
       <c r="K72" t="b">
-        <v>0</v>
-      </c>
-      <c r="L72" t="b">
-        <v>1</v>
-      </c>
-      <c r="M72" t="s">
-        <v>158</v>
-      </c>
-      <c r="O72" s="7">
+        <v>1</v>
+      </c>
+      <c r="L72" t="s">
+        <v>157</v>
+      </c>
+      <c r="N72" s="7">
         <v>702</v>
       </c>
-      <c r="Q72" s="7">
+      <c r="P72" s="7">
         <v>702</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -8907,22 +8749,19 @@
         <v>0</v>
       </c>
       <c r="K73" t="b">
-        <v>0</v>
-      </c>
-      <c r="L73" t="b">
-        <v>1</v>
-      </c>
-      <c r="M73" t="s">
-        <v>158</v>
-      </c>
-      <c r="O73" s="7">
+        <v>1</v>
+      </c>
+      <c r="L73" t="s">
+        <v>157</v>
+      </c>
+      <c r="N73" s="7">
         <v>702</v>
       </c>
-      <c r="Q73" s="7">
+      <c r="P73" s="7">
         <v>702</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -8954,22 +8793,19 @@
         <v>0</v>
       </c>
       <c r="K74" t="b">
-        <v>0</v>
-      </c>
-      <c r="L74" t="b">
-        <v>1</v>
-      </c>
-      <c r="M74" t="s">
-        <v>158</v>
-      </c>
-      <c r="O74" s="8">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
+        <v>157</v>
+      </c>
+      <c r="N74" s="8">
         <v>724</v>
       </c>
-      <c r="Q74" s="8">
+      <c r="P74" s="8">
         <v>724</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -9001,22 +8837,19 @@
         <v>0</v>
       </c>
       <c r="K75" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" t="b">
-        <v>1</v>
-      </c>
-      <c r="M75" t="s">
-        <v>158</v>
-      </c>
-      <c r="O75" s="8">
+        <v>1</v>
+      </c>
+      <c r="L75" t="s">
+        <v>157</v>
+      </c>
+      <c r="N75" s="8">
         <v>724</v>
       </c>
-      <c r="Q75" s="8">
+      <c r="P75" s="8">
         <v>724</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -9048,22 +8881,19 @@
         <v>0</v>
       </c>
       <c r="K76" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" t="b">
-        <v>1</v>
-      </c>
-      <c r="M76" t="s">
-        <v>158</v>
-      </c>
-      <c r="O76" s="9">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>157</v>
+      </c>
+      <c r="N76" s="9">
         <v>742</v>
       </c>
-      <c r="Q76" s="9">
+      <c r="P76" s="9">
         <v>742</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -9095,22 +8925,19 @@
         <v>0</v>
       </c>
       <c r="K77" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" t="b">
-        <v>1</v>
-      </c>
-      <c r="M77" t="s">
-        <v>158</v>
-      </c>
-      <c r="O77" s="9">
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>157</v>
+      </c>
+      <c r="N77" s="9">
         <v>742</v>
       </c>
-      <c r="Q77" s="9">
+      <c r="P77" s="9">
         <v>742</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -9142,22 +8969,19 @@
         <v>0</v>
       </c>
       <c r="K78" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" t="b">
-        <v>1</v>
-      </c>
-      <c r="M78" t="s">
-        <v>158</v>
-      </c>
-      <c r="O78" s="10">
+        <v>1</v>
+      </c>
+      <c r="L78" t="s">
+        <v>157</v>
+      </c>
+      <c r="N78" s="10">
         <v>744</v>
       </c>
-      <c r="Q78" s="10">
+      <c r="P78" s="10">
         <v>744</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -9189,22 +9013,19 @@
         <v>0</v>
       </c>
       <c r="K79" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" t="b">
-        <v>1</v>
-      </c>
-      <c r="M79" t="s">
-        <v>158</v>
-      </c>
-      <c r="O79" s="10">
+        <v>1</v>
+      </c>
+      <c r="L79" t="s">
+        <v>157</v>
+      </c>
+      <c r="N79" s="10">
         <v>744</v>
       </c>
-      <c r="Q79" s="10">
+      <c r="P79" s="10">
         <v>744</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -9238,16 +9059,16 @@
         <v>0</v>
       </c>
       <c r="J81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="b">
-        <v>0</v>
-      </c>
-      <c r="M81" t="s">
-        <v>154</v>
+        <v>0</v>
+      </c>
+      <c r="L81" t="s">
+        <v>153</v>
+      </c>
+      <c r="N81">
+        <v>202</v>
       </c>
       <c r="O81">
         <v>202</v>
@@ -9256,9 +9077,6 @@
         <v>202</v>
       </c>
       <c r="Q81">
-        <v>202</v>
-      </c>
-      <c r="R81">
         <v>202</v>
       </c>
     </row>
@@ -9291,16 +9109,16 @@
         <v>0</v>
       </c>
       <c r="J82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="b">
-        <v>1</v>
-      </c>
-      <c r="L82" t="b">
-        <v>0</v>
-      </c>
-      <c r="M82" t="s">
-        <v>154</v>
+        <v>0</v>
+      </c>
+      <c r="L82" t="s">
+        <v>153</v>
+      </c>
+      <c r="N82">
+        <v>202</v>
       </c>
       <c r="O82">
         <v>202</v>
@@ -9309,9 +9127,6 @@
         <v>202</v>
       </c>
       <c r="Q82">
-        <v>202</v>
-      </c>
-      <c r="R82">
         <v>202</v>
       </c>
     </row>
@@ -9344,16 +9159,16 @@
         <v>0</v>
       </c>
       <c r="J83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="b">
-        <v>0</v>
-      </c>
-      <c r="M83" t="s">
-        <v>154</v>
+        <v>0</v>
+      </c>
+      <c r="L83" t="s">
+        <v>153</v>
+      </c>
+      <c r="N83">
+        <v>202</v>
       </c>
       <c r="O83">
         <v>202</v>
@@ -9362,9 +9177,6 @@
         <v>202</v>
       </c>
       <c r="Q83">
-        <v>202</v>
-      </c>
-      <c r="R83">
         <v>202</v>
       </c>
     </row>
@@ -9397,16 +9209,16 @@
         <v>0</v>
       </c>
       <c r="J84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="b">
-        <v>0</v>
-      </c>
-      <c r="M84" t="s">
-        <v>154</v>
+        <v>0</v>
+      </c>
+      <c r="L84" t="s">
+        <v>153</v>
+      </c>
+      <c r="N84">
+        <v>202</v>
       </c>
       <c r="O84">
         <v>202</v>
@@ -9415,9 +9227,6 @@
         <v>202</v>
       </c>
       <c r="Q84">
-        <v>202</v>
-      </c>
-      <c r="R84">
         <v>202</v>
       </c>
     </row>
@@ -9450,16 +9259,16 @@
         <v>0</v>
       </c>
       <c r="J85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="b">
-        <v>0</v>
-      </c>
-      <c r="M85" t="s">
-        <v>154</v>
+        <v>0</v>
+      </c>
+      <c r="L85" t="s">
+        <v>153</v>
+      </c>
+      <c r="N85">
+        <v>202</v>
       </c>
       <c r="O85">
         <v>202</v>
@@ -9468,9 +9277,6 @@
         <v>202</v>
       </c>
       <c r="Q85">
-        <v>202</v>
-      </c>
-      <c r="R85">
         <v>202</v>
       </c>
     </row>
@@ -9503,16 +9309,16 @@
         <v>0</v>
       </c>
       <c r="J86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" t="b">
-        <v>1</v>
-      </c>
-      <c r="L86" t="b">
-        <v>0</v>
-      </c>
-      <c r="M86" t="s">
-        <v>154</v>
+        <v>0</v>
+      </c>
+      <c r="L86" t="s">
+        <v>153</v>
+      </c>
+      <c r="N86">
+        <v>202</v>
       </c>
       <c r="O86">
         <v>202</v>
@@ -9521,9 +9327,6 @@
         <v>202</v>
       </c>
       <c r="Q86">
-        <v>202</v>
-      </c>
-      <c r="R86">
         <v>202</v>
       </c>
     </row>
@@ -9556,16 +9359,16 @@
         <v>0</v>
       </c>
       <c r="J87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" t="b">
-        <v>1</v>
-      </c>
-      <c r="L87" t="b">
-        <v>0</v>
-      </c>
-      <c r="M87" t="s">
-        <v>154</v>
+        <v>0</v>
+      </c>
+      <c r="L87" t="s">
+        <v>153</v>
+      </c>
+      <c r="N87">
+        <v>202</v>
       </c>
       <c r="O87">
         <v>202</v>
@@ -9574,9 +9377,6 @@
         <v>202</v>
       </c>
       <c r="Q87">
-        <v>202</v>
-      </c>
-      <c r="R87">
         <v>202</v>
       </c>
     </row>
@@ -9609,16 +9409,16 @@
         <v>0</v>
       </c>
       <c r="J88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="b">
-        <v>0</v>
-      </c>
-      <c r="M88" t="s">
-        <v>154</v>
+        <v>0</v>
+      </c>
+      <c r="L88" t="s">
+        <v>153</v>
+      </c>
+      <c r="N88">
+        <v>202</v>
       </c>
       <c r="O88">
         <v>202</v>
@@ -9627,9 +9427,6 @@
         <v>202</v>
       </c>
       <c r="Q88">
-        <v>202</v>
-      </c>
-      <c r="R88">
         <v>202</v>
       </c>
     </row>
@@ -9662,16 +9459,16 @@
         <v>0</v>
       </c>
       <c r="J89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="b">
-        <v>0</v>
-      </c>
-      <c r="M89" t="s">
-        <v>154</v>
+        <v>0</v>
+      </c>
+      <c r="L89" t="s">
+        <v>153</v>
+      </c>
+      <c r="N89">
+        <v>202</v>
       </c>
       <c r="O89">
         <v>202</v>
@@ -9680,9 +9477,6 @@
         <v>202</v>
       </c>
       <c r="Q89">
-        <v>202</v>
-      </c>
-      <c r="R89">
         <v>202</v>
       </c>
     </row>
@@ -9692,90 +9486,423 @@
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" t="b">
+        <v>1</v>
+      </c>
+      <c r="L91" t="s">
+        <v>183</v>
+      </c>
+      <c r="R91" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" t="s">
+        <v>183</v>
+      </c>
+      <c r="R92" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
+      <c r="A93" s="3">
+        <v>92</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" t="s">
+        <v>183</v>
+      </c>
+      <c r="R93" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" t="b">
+        <v>1</v>
+      </c>
+      <c r="D94" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" t="b">
+        <v>0</v>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="s">
+        <v>183</v>
+      </c>
+      <c r="R94" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95" t="b">
+        <v>1</v>
+      </c>
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" t="b">
+        <v>1</v>
+      </c>
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" t="b">
+        <v>0</v>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="s">
+        <v>183</v>
+      </c>
+      <c r="R95" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+      <c r="D96" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" t="b">
+        <v>0</v>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="s">
+        <v>183</v>
+      </c>
+      <c r="R96" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>96</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" t="b">
+        <v>1</v>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" t="b">
+        <v>0</v>
+      </c>
+      <c r="K97" t="b">
+        <v>1</v>
+      </c>
+      <c r="L97" t="s">
+        <v>183</v>
+      </c>
+      <c r="R97" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98" t="b">
+        <v>1</v>
+      </c>
+      <c r="D98" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" t="b">
+        <v>0</v>
+      </c>
+      <c r="K98" t="b">
+        <v>1</v>
+      </c>
+      <c r="L98" t="s">
+        <v>183</v>
+      </c>
+      <c r="R98" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" t="b">
+        <v>0</v>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" t="s">
+        <v>183</v>
+      </c>
+      <c r="R99" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
     </row>
@@ -13348,7 +13475,7 @@
       <c r="B1004" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N3:Q12">
+  <conditionalFormatting sqref="M3:P12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -13369,9 +13496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517AF821-DE73-E44B-B05F-E5374FFCFDC2}">
   <dimension ref="A1:F264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13397,7 +13524,9 @@
       <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -13412,7 +13541,9 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
       <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -13428,7 +13559,9 @@
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -13444,7 +13577,9 @@
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -13460,7 +13595,9 @@
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -13475,7 +13612,9 @@
       <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -13485,12 +13624,14 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -13505,7 +13646,9 @@
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -13520,7 +13663,9 @@
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -13530,12 +13675,14 @@
         <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -13545,12 +13692,14 @@
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -13566,7 +13715,9 @@
       <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -13656,7 +13807,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
@@ -13673,7 +13824,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
@@ -13690,7 +13841,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
@@ -13707,13 +13858,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -13724,7 +13875,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>4</v>
@@ -13741,13 +13892,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -13758,7 +13909,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
@@ -13775,7 +13926,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>7</v>
@@ -13792,7 +13943,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
@@ -13809,7 +13960,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>24</v>
@@ -13859,7 +14010,7 @@
         <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -13870,13 +14021,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="12" t="b">
         <v>1</v>
@@ -13890,13 +14041,13 @@
         <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" s="12" t="b">
         <v>1</v>
@@ -13910,7 +14061,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -14110,13 +14261,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -14203,7 +14354,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
@@ -14220,7 +14371,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -14237,13 +14388,13 @@
         <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -14254,7 +14405,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -14271,7 +14422,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
@@ -14288,7 +14439,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
@@ -14305,7 +14456,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>24</v>
@@ -14322,7 +14473,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
@@ -14339,7 +14490,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
@@ -14356,13 +14507,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/RegentsCalendar.xlsx
+++ b/app/data/RegentsCalendar.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekstampone/Library/Mobile Documents/com~apple~CloudDocs/Developer/data-specialist-flask/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D46A80-55C8-7F43-A1A5-74A47DEC5A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B07981-5AB1-B145-A3DC-413968BB5D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="500" windowWidth="33560" windowHeight="28300" activeTab="1" xr2:uid="{98DCE2EE-096A-EF4C-9576-6BE138F05710}"/>
+    <workbookView xWindow="1700" yWindow="760" windowWidth="27880" windowHeight="18360" activeTab="2" xr2:uid="{98DCE2EE-096A-EF4C-9576-6BE138F05710}"/>
   </bookViews>
   <sheets>
     <sheet name="SectionProperties" sheetId="2" r:id="rId1"/>
     <sheet name="SummerSectionProperties" sheetId="4" r:id="rId2"/>
-    <sheet name="2024-7" sheetId="8" r:id="rId3"/>
-    <sheet name="2025-1" sheetId="6" r:id="rId4"/>
+    <sheet name="2025-1" sheetId="6" r:id="rId3"/>
+    <sheet name="2024-7" sheetId="8" r:id="rId4"/>
     <sheet name="2024-2" sheetId="7" r:id="rId5"/>
     <sheet name="2024-1" sheetId="5" r:id="rId6"/>
     <sheet name="2023-7" sheetId="3" r:id="rId7"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2023-2'!$A$1:$E$327</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2023-7'!$A$1:$E$327</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2024-2'!$A$1:$E$327</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2024-7'!$A$1:$E$326</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2024-7'!$A$1:$E$326</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SummerSectionProperties!$A$1:$K$1004</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="187">
   <si>
     <t>Day</t>
   </si>
@@ -602,6 +602,15 @@
   </si>
   <si>
     <t>_PM3</t>
+  </si>
+  <si>
+    <t>SXR2R</t>
+  </si>
+  <si>
+    <t>MXRJR</t>
+  </si>
+  <si>
+    <t>SXR3R</t>
   </si>
 </sst>
 </file>
@@ -1042,131 +1051,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED29BD9C-93F7-3B47-BD2F-429330E86B98}">
-  <dimension ref="A1:E1004"/>
+  <dimension ref="A1:H1004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>202</v>
+      </c>
+      <c r="D2">
+        <v>202</v>
+      </c>
+      <c r="E2">
+        <v>202</v>
+      </c>
+      <c r="F2">
+        <v>202</v>
+      </c>
+      <c r="G2">
+        <v>202</v>
+      </c>
+      <c r="H2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="3">
+        <v>940</v>
+      </c>
+      <c r="D3">
+        <v>801</v>
+      </c>
+      <c r="E3" s="3">
+        <v>940</v>
+      </c>
+      <c r="F3">
+        <v>801</v>
+      </c>
+      <c r="G3" s="3">
+        <v>646</v>
+      </c>
+      <c r="H3" s="3">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="3">
+        <v>925</v>
+      </c>
+      <c r="D4" s="3">
+        <v>802</v>
+      </c>
+      <c r="E4" s="3">
+        <v>925</v>
+      </c>
+      <c r="F4" s="3">
+        <v>802</v>
+      </c>
+      <c r="G4" s="3">
+        <v>645</v>
+      </c>
+      <c r="H4" s="3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="3">
+        <v>923</v>
+      </c>
+      <c r="D5" s="3">
+        <v>822</v>
+      </c>
+      <c r="E5" s="3">
+        <v>923</v>
+      </c>
+      <c r="F5" s="3">
+        <v>822</v>
+      </c>
+      <c r="G5" s="3">
+        <v>640</v>
+      </c>
+      <c r="H5" s="3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="3">
+        <v>921</v>
+      </c>
+      <c r="D6" s="3">
+        <v>824</v>
+      </c>
+      <c r="E6" s="3">
+        <v>921</v>
+      </c>
+      <c r="F6" s="3">
+        <v>824</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="3">
+        <v>902</v>
+      </c>
+      <c r="D7" s="3">
+        <v>826</v>
+      </c>
+      <c r="E7" s="3">
+        <v>902</v>
+      </c>
+      <c r="F7" s="3">
+        <v>826</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="3">
+        <v>906</v>
+      </c>
+      <c r="D8" s="3">
+        <v>840</v>
+      </c>
+      <c r="E8" s="3">
+        <v>906</v>
+      </c>
+      <c r="F8" s="3">
+        <v>840</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="3">
+        <v>845</v>
+      </c>
+      <c r="D9" s="3">
+        <v>845</v>
+      </c>
+      <c r="E9" s="3">
+        <v>845</v>
+      </c>
+      <c r="F9" s="3">
+        <v>845</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="3">
+        <v>840</v>
+      </c>
+      <c r="D10" s="3">
+        <v>902</v>
+      </c>
+      <c r="E10" s="3">
+        <v>840</v>
+      </c>
+      <c r="F10" s="3">
+        <v>902</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="3">
+        <v>826</v>
+      </c>
+      <c r="D11" s="3">
+        <v>906</v>
+      </c>
+      <c r="E11" s="3">
+        <v>826</v>
+      </c>
+      <c r="F11" s="3">
+        <v>906</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="3">
+        <v>806</v>
+      </c>
+      <c r="D12" s="3">
+        <v>806</v>
+      </c>
+      <c r="E12" s="3">
+        <v>806</v>
+      </c>
+      <c r="F12" s="3">
+        <v>806</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="3">
+        <v>202</v>
+      </c>
+      <c r="D13" s="3">
+        <v>202</v>
+      </c>
+      <c r="E13" s="3">
+        <v>202</v>
+      </c>
+      <c r="F13" s="3">
+        <v>202</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1174,137 +1388,397 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>329</v>
+      </c>
+      <c r="D16">
+        <v>329</v>
+      </c>
+      <c r="E16">
+        <v>329</v>
+      </c>
+      <c r="F16">
+        <v>329</v>
+      </c>
+      <c r="G16">
+        <v>329</v>
+      </c>
+      <c r="H16">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>329</v>
+      </c>
+      <c r="D17">
+        <v>329</v>
+      </c>
+      <c r="E17">
+        <v>329</v>
+      </c>
+      <c r="F17">
+        <v>329</v>
+      </c>
+      <c r="G17">
+        <v>329</v>
+      </c>
+      <c r="H17">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>329</v>
+      </c>
+      <c r="D18">
+        <v>329</v>
+      </c>
+      <c r="E18">
+        <v>329</v>
+      </c>
+      <c r="F18">
+        <v>329</v>
+      </c>
+      <c r="G18">
+        <v>329</v>
+      </c>
+      <c r="H18">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>329</v>
+      </c>
+      <c r="D19">
+        <v>329</v>
+      </c>
+      <c r="E19">
+        <v>329</v>
+      </c>
+      <c r="F19">
+        <v>329</v>
+      </c>
+      <c r="G19">
+        <v>329</v>
+      </c>
+      <c r="H19">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="6">
+        <v>725</v>
+      </c>
+      <c r="D20" s="6">
+        <v>726</v>
+      </c>
+      <c r="E20" s="6">
+        <v>522</v>
+      </c>
+      <c r="F20" s="6">
+        <v>529</v>
+      </c>
+      <c r="G20" s="6">
+        <v>219</v>
+      </c>
+      <c r="H20" s="6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="7">
+        <v>701</v>
+      </c>
+      <c r="D21" s="7">
+        <v>702</v>
+      </c>
+      <c r="E21" s="7">
+        <v>523</v>
+      </c>
+      <c r="F21" s="7">
+        <v>540</v>
+      </c>
+      <c r="G21" s="7">
+        <v>219</v>
+      </c>
+      <c r="H21" s="7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="7">
+        <v>701</v>
+      </c>
+      <c r="D22" s="7">
+        <v>702</v>
+      </c>
+      <c r="E22" s="7">
+        <v>523</v>
+      </c>
+      <c r="F22" s="7">
+        <v>540</v>
+      </c>
+      <c r="G22" s="7">
+        <v>219</v>
+      </c>
+      <c r="H22" s="7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="7">
+        <v>701</v>
+      </c>
+      <c r="D23" s="7">
+        <v>702</v>
+      </c>
+      <c r="E23" s="7">
+        <v>523</v>
+      </c>
+      <c r="F23" s="7">
+        <v>540</v>
+      </c>
+      <c r="G23" s="7">
+        <v>219</v>
+      </c>
+      <c r="H23" s="7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="8">
+        <v>722</v>
+      </c>
+      <c r="D24" s="8">
+        <v>724</v>
+      </c>
+      <c r="E24" s="8">
+        <v>524</v>
+      </c>
+      <c r="F24" s="8">
+        <v>542</v>
+      </c>
+      <c r="G24" s="8">
+        <v>225</v>
+      </c>
+      <c r="H24" s="8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="8">
+        <v>722</v>
+      </c>
+      <c r="D25" s="8">
+        <v>724</v>
+      </c>
+      <c r="E25" s="8">
+        <v>524</v>
+      </c>
+      <c r="F25" s="8">
+        <v>542</v>
+      </c>
+      <c r="G25" s="8">
+        <v>225</v>
+      </c>
+      <c r="H25" s="8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="9">
+        <v>740</v>
+      </c>
+      <c r="D26" s="9">
+        <v>742</v>
+      </c>
+      <c r="E26" s="9">
+        <v>525</v>
+      </c>
+      <c r="F26" s="9">
+        <v>544</v>
+      </c>
+      <c r="G26" s="9">
+        <v>227</v>
+      </c>
+      <c r="H26" s="9">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="9">
+        <v>740</v>
+      </c>
+      <c r="D27" s="9">
+        <v>742</v>
+      </c>
+      <c r="E27" s="9">
+        <v>525</v>
+      </c>
+      <c r="F27" s="9">
+        <v>544</v>
+      </c>
+      <c r="G27" s="9">
+        <v>227</v>
+      </c>
+      <c r="H27" s="9">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="10">
+        <v>743</v>
+      </c>
+      <c r="D28" s="10">
+        <v>744</v>
+      </c>
+      <c r="E28" s="10">
+        <v>527</v>
+      </c>
+      <c r="F28" s="10">
+        <v>545</v>
+      </c>
+      <c r="G28" s="10">
+        <v>229</v>
+      </c>
+      <c r="H28" s="10">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="10">
+        <v>743</v>
+      </c>
+      <c r="D29" s="10">
+        <v>744</v>
+      </c>
+      <c r="E29" s="10">
+        <v>527</v>
+      </c>
+      <c r="F29" s="10">
+        <v>545</v>
+      </c>
+      <c r="G29" s="10">
+        <v>229</v>
+      </c>
+      <c r="H29" s="10">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="7">
+        <v>321</v>
+      </c>
+      <c r="D31" s="7">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="C32" s="7">
+        <v>321</v>
+      </c>
+      <c r="D32" s="7">
+        <v>321</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -1313,7 +1787,12 @@
       <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="C33" s="7">
+        <v>321</v>
+      </c>
+      <c r="D33" s="7">
+        <v>321</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -1322,7 +1801,12 @@
       <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="C34" s="8">
+        <v>319</v>
+      </c>
+      <c r="D34" s="8">
+        <v>319</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -1331,7 +1815,12 @@
       <c r="B35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="C35" s="8">
+        <v>319</v>
+      </c>
+      <c r="D35" s="8">
+        <v>319</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -1340,7 +1829,12 @@
       <c r="B36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="C36" s="9">
+        <v>323</v>
+      </c>
+      <c r="D36" s="9">
+        <v>323</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -1349,7 +1843,12 @@
       <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="C37" s="9">
+        <v>323</v>
+      </c>
+      <c r="D37" s="9">
+        <v>323</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
@@ -1358,7 +1857,12 @@
       <c r="B38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="C38" s="10">
+        <v>327</v>
+      </c>
+      <c r="D38" s="10">
+        <v>327</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
@@ -1367,7 +1871,12 @@
       <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="C39" s="10">
+        <v>327</v>
+      </c>
+      <c r="D39" s="10">
+        <v>327</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
@@ -1376,7 +1885,6 @@
       <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
@@ -1385,7 +1893,12 @@
       <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="C41" s="7">
+        <v>701</v>
+      </c>
+      <c r="E41" s="7">
+        <v>701</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
@@ -1394,7 +1907,12 @@
       <c r="B42" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="C42" s="7">
+        <v>701</v>
+      </c>
+      <c r="E42" s="7">
+        <v>701</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
@@ -1403,7 +1921,12 @@
       <c r="B43" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="3"/>
+      <c r="C43" s="7">
+        <v>701</v>
+      </c>
+      <c r="E43" s="7">
+        <v>701</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
@@ -1412,7 +1935,12 @@
       <c r="B44" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="3"/>
+      <c r="C44" s="8">
+        <v>722</v>
+      </c>
+      <c r="E44" s="8">
+        <v>722</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
@@ -1421,7 +1949,12 @@
       <c r="B45" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="3"/>
+      <c r="C45" s="8">
+        <v>722</v>
+      </c>
+      <c r="E45" s="8">
+        <v>722</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
@@ -1430,7 +1963,12 @@
       <c r="B46" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="3"/>
+      <c r="C46" s="9">
+        <v>740</v>
+      </c>
+      <c r="E46" s="9">
+        <v>740</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
@@ -1439,7 +1977,12 @@
       <c r="B47" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E47" s="3"/>
+      <c r="C47" s="9">
+        <v>740</v>
+      </c>
+      <c r="E47" s="9">
+        <v>740</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
@@ -1448,99 +1991,162 @@
       <c r="B48" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C48" s="10">
+        <v>743</v>
+      </c>
+      <c r="E48" s="10">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C49" s="10">
+        <v>743</v>
+      </c>
+      <c r="E49" s="10">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C51" s="7">
+        <v>701</v>
+      </c>
+      <c r="F51" s="7">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C52" s="7">
+        <v>701</v>
+      </c>
+      <c r="F52" s="7">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C53" s="7">
+        <v>701</v>
+      </c>
+      <c r="F53" s="7">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C54" s="8">
+        <v>722</v>
+      </c>
+      <c r="F54" s="8">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C55" s="8">
+        <v>722</v>
+      </c>
+      <c r="F55" s="8">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C56" s="9">
+        <v>740</v>
+      </c>
+      <c r="F56" s="9">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C57" s="9">
+        <v>740</v>
+      </c>
+      <c r="F57" s="9">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C58" s="10">
+        <v>743</v>
+      </c>
+      <c r="F58" s="10">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C59" s="10">
+        <v>743</v>
+      </c>
+      <c r="F59" s="10">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -1548,75 +2154,129 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D61" s="7">
+        <v>702</v>
+      </c>
+      <c r="E61" s="7">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D62" s="7">
+        <v>702</v>
+      </c>
+      <c r="E62" s="7">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D63" s="7">
+        <v>702</v>
+      </c>
+      <c r="E63" s="7">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D64" s="8">
+        <v>724</v>
+      </c>
+      <c r="E64" s="8">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D65" s="8">
+        <v>724</v>
+      </c>
+      <c r="E65" s="8">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D66" s="9">
+        <v>742</v>
+      </c>
+      <c r="E66" s="9">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D67" s="9">
+        <v>742</v>
+      </c>
+      <c r="E67" s="9">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D68" s="10">
+        <v>744</v>
+      </c>
+      <c r="E68" s="10">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D69" s="10">
+        <v>744</v>
+      </c>
+      <c r="E69" s="10">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -1624,125 +2284,287 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D71" s="7">
+        <v>702</v>
+      </c>
+      <c r="F71" s="7">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D72" s="7">
+        <v>702</v>
+      </c>
+      <c r="F72" s="7">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D73" s="7">
+        <v>702</v>
+      </c>
+      <c r="F73" s="7">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D74" s="8">
+        <v>724</v>
+      </c>
+      <c r="F74" s="8">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D75" s="8">
+        <v>724</v>
+      </c>
+      <c r="F75" s="8">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D76" s="9">
+        <v>742</v>
+      </c>
+      <c r="F76" s="9">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D77" s="9">
+        <v>742</v>
+      </c>
+      <c r="F77" s="9">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D78" s="10">
+        <v>744</v>
+      </c>
+      <c r="F78" s="10">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D79" s="10">
+        <v>744</v>
+      </c>
+      <c r="F79" s="10">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" s="3"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>202</v>
+      </c>
+      <c r="E81">
+        <v>202</v>
+      </c>
+      <c r="F81">
+        <v>202</v>
+      </c>
+      <c r="G81">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>202</v>
+      </c>
+      <c r="E82">
+        <v>202</v>
+      </c>
+      <c r="F82">
+        <v>202</v>
+      </c>
+      <c r="G82">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <v>202</v>
+      </c>
+      <c r="E83">
+        <v>202</v>
+      </c>
+      <c r="F83">
+        <v>202</v>
+      </c>
+      <c r="G83">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <v>202</v>
+      </c>
+      <c r="E84">
+        <v>202</v>
+      </c>
+      <c r="F84">
+        <v>202</v>
+      </c>
+      <c r="G84">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>202</v>
+      </c>
+      <c r="E85">
+        <v>202</v>
+      </c>
+      <c r="F85">
+        <v>202</v>
+      </c>
+      <c r="G85">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
       <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>202</v>
+      </c>
+      <c r="E86">
+        <v>202</v>
+      </c>
+      <c r="F86">
+        <v>202</v>
+      </c>
+      <c r="G86">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>202</v>
+      </c>
+      <c r="E87">
+        <v>202</v>
+      </c>
+      <c r="F87">
+        <v>202</v>
+      </c>
+      <c r="G87">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>202</v>
+      </c>
+      <c r="E88">
+        <v>202</v>
+      </c>
+      <c r="F88">
+        <v>202</v>
+      </c>
+      <c r="G88">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>202</v>
+      </c>
+      <c r="E89">
+        <v>202</v>
+      </c>
+      <c r="F89">
+        <v>202</v>
+      </c>
+      <c r="G89">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -1750,91 +2572,118 @@
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H91" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H92" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H93" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H94" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H95" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H96" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H97" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H98" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H99" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
     </row>
@@ -5407,6 +6256,18 @@
       <c r="B1004" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C3:F12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5416,8 +6277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6309B1-B2F2-C24D-9683-349831E0A64F}">
   <dimension ref="A1:V1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="R100" sqref="R100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13493,12 +14354,270 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCA803E-0660-F641-BDDB-024EE43C3378}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E264">
+    <sortCondition ref="A2:A264"/>
+    <sortCondition ref="B2:B264"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517AF821-DE73-E44B-B05F-E5374FFCFDC2}">
   <dimension ref="A1:F264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13769,208 +14888,6 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCA803E-0660-F641-BDDB-024EE43C3378}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>45679</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>45679</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>45678</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>45681</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>45680</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>45678</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>45678</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>45679</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>45680</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>45679</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/app/data/RegentsCalendar.xlsx
+++ b/app/data/RegentsCalendar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekstampone/Library/Mobile Documents/com~apple~CloudDocs/Developer/data-specialist-flask/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B07981-5AB1-B145-A3DC-413968BB5D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A578EA1-53E3-6C4E-A067-E83ACCA3B152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="760" windowWidth="27880" windowHeight="18360" activeTab="2" xr2:uid="{98DCE2EE-096A-EF4C-9576-6BE138F05710}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="190">
   <si>
     <t>Day</t>
   </si>
@@ -611,6 +611,15 @@
   </si>
   <si>
     <t>SXR3R</t>
+  </si>
+  <si>
+    <t>SBS43</t>
+  </si>
+  <si>
+    <t>MRS41</t>
+  </si>
+  <si>
+    <t>SJS43</t>
   </si>
 </sst>
 </file>
@@ -14358,7 +14367,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14437,6 +14446,9 @@
       <c r="D4" s="3" t="s">
         <v>160</v>
       </c>
+      <c r="E4" t="s">
+        <v>187</v>
+      </c>
       <c r="F4" s="3">
         <v>2</v>
       </c>
@@ -14508,7 +14520,9 @@
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
@@ -14597,7 +14611,9 @@
       <c r="D13" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="F13" s="3">
         <v>1</v>
       </c>
